--- a/ConsoleApp1/Sample/2-mst_file.xlsx
+++ b/ConsoleApp1/Sample/2-mst_file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisasuedu.sharepoint.com/sites/ALG24.Term2/Shared Documents/General/5 Project/MATERIALS/[3] Plagiarism Validation/Sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisasuedu-my.sharepoint.com/personal/ahmed_salah_cis_asu_edu_eg/Documents/[2024]/[ALG'24.term2]/Staff/10 Project/RELEASE/[3] Plagiarism Validation/Test casesV3/Sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_622919F3C422251FA21B245E94E85517539F5556" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{179F79E3-B3C1-450D-AC8E-4EA3377310BA}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_DD974BA0660480BB0B62584BB2DA97C5928B4D34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3338004-0B38-4226-ABD0-7AAC63574ECF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,47 +43,47 @@
     <t>D:/Source/1/ (13%)</t>
   </si>
   <si>
+    <t>D:/Source/5/ (47%)</t>
+  </si>
+  <si>
+    <t>D:/Source/6/ (49%)</t>
+  </si>
+  <si>
     <t>D:/Source/4/ (64%)</t>
   </si>
   <si>
     <t>D:/Source/5/ (13%)</t>
   </si>
   <si>
-    <t>D:/Source/5/ (47%)</t>
-  </si>
-  <si>
-    <t>D:/Source/6/ (49%)</t>
-  </si>
-  <si>
     <t>D:/Source/8/ (31%)</t>
   </si>
   <si>
     <t>D:/Source/9/ (41%)</t>
   </si>
   <si>
+    <t>D:/Source/11/ (19%)</t>
+  </si>
+  <si>
+    <t>D:/Source/8/ (15%)</t>
+  </si>
+  <si>
+    <t>D:/Source/7/ (25%)</t>
+  </si>
+  <si>
+    <t>D:/Source/8/ (23%)</t>
+  </si>
+  <si>
     <t>D:/Source/10/ (37%)</t>
   </si>
   <si>
     <t>D:/Source/11/ (8%)</t>
-  </si>
-  <si>
-    <t>D:/Source/7/ (25%)</t>
-  </si>
-  <si>
-    <t>D:/Source/8/ (23%)</t>
-  </si>
-  <si>
-    <t>D:/Source/11/ (19%)</t>
-  </si>
-  <si>
-    <t>D:/Source/8/ (15%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,16 +97,47 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,13 +145,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,113 +489,113 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>28</v>
+      <c r="C4" s="6">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>40</v>
+      <c r="C5" s="6">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>19</v>
+      <c r="C7" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
-        <v>29</v>
+      <c r="C9" s="8">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -559,15 +622,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B9D56C6C3D48844B523255EE5F913EA" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e56c70ee8e35d13338cf11322dffd07">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1cc1538f-a989-47d6-92fb-89fcd0265031" xmlns:ns3="17eda93a-431a-4573-b14d-5d3253275257" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d841a9c5a1d2da4b318a6080b9af024" ns2:_="" ns3:_="">
     <xsd:import namespace="1cc1538f-a989-47d6-92fb-89fcd0265031"/>
@@ -796,29 +850,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEB27FC-BB00-4BA6-A599-0F127755C51F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C24C33-FC00-4ABF-90A2-D4C8CB8D9C28}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350C8BBB-0035-43BA-AFC3-BDE7FC54BB5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1cc1538f-a989-47d6-92fb-89fcd0265031"/>
-    <ds:schemaRef ds:uri="17eda93a-431a-4573-b14d-5d3253275257"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0FD7573-6E81-47EF-A48A-159B0DC5EAD3}"/>
 </file>